--- a/Input/Cigna_Global_Health/Sheets_Backup/benefits.xlsx
+++ b/Input/Cigna_Global_Health/Sheets_Backup/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">dependent benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discounts</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -278,6 +281,9 @@
     <t xml:space="preserve">Dental - Dental_Waiting_Period</t>
   </si>
   <si>
+    <t xml:space="preserve">discount</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver</t>
   </si>
   <si>
@@ -338,25 +344,7 @@
     <t xml:space="preserve">$0, 20% Co-insurance, $3,000 Out of pocket</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dental - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Emergency Evacuation</t>
-    </r>
+    <t xml:space="preserve">Dental - Emergency-Evacuation</t>
   </si>
   <si>
     <t xml:space="preserve">$0, 20% Co-insurance, $2,000 Out of pocket</t>
@@ -555,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -577,12 +565,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -649,87 +631,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF222222"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AZ50"/>
+  <dimension ref="A1:BA50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX4" activeCellId="0" sqref="AX4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA3" activeCellId="0" sqref="BA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="52.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="1" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,46 +806,49 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>46</v>
@@ -946,141 +872,144 @@
         <v>48</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ2" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AZ2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>46</v>
@@ -1104,114 +1033,114 @@
         <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>46</v>
@@ -1235,78 +1164,78 @@
         <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="W4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AZ4" s="0" t="s">
-        <v>105</v>
+      <c r="AZ4" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>26</v>
@@ -1314,10 +1243,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>24</v>
@@ -1325,267 +1254,270 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL7" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL9" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL10" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL11" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL12" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL14" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL15" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL16" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL17" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL19" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL20" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL21" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL23" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL24" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL26" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL27" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL28" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL29" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL30" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL31" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL32" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL33" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL34" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL35" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL38" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL39" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL40" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL41" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL42" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL43" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL44" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL45" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL46" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL47" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL48" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL49" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL50" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
